--- a/Paper_model/BiLSTM/Summary-BiLSTM-1lb.xlsx
+++ b/Paper_model/BiLSTM/Summary-BiLSTM-1lb.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nptu\Documents\GitHub\Market-Sentiment-Analysis\Paper_model\BiLSTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A72A8B-4C17-46A8-AB48-A232955F3DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6D74C0-8955-4399-ABBA-C633BBEA785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$193</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -463,10 +466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="I172" sqref="I172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A1:H193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -506,7 +510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -532,7 +536,7 @@
         <v>132.86419988394229</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -558,7 +562,7 @@
         <v>204.26360933917411</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -584,7 +588,7 @@
         <v>219.30147764533979</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -610,7 +614,7 @@
         <v>211.79658024362681</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -636,7 +640,7 @@
         <v>120.4456174413571</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -662,7 +666,7 @@
         <v>127.0999909081451</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -688,7 +692,7 @@
         <v>183.78968524647419</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -714,7 +718,7 @@
         <v>128.25994721350739</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -740,7 +744,7 @@
         <v>185.65520311663519</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -766,7 +770,7 @@
         <v>127.1057667066853</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -792,7 +796,7 @@
         <v>140.18721785890841</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>1462.8253557288169</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -1780,7 +1784,7 @@
         <v>9.4837928673288747</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -1806,7 +1810,7 @@
         <v>13.62828253498555</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1832,7 +1836,7 @@
         <v>8.9162524453060339</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -1858,7 +1862,7 @@
         <v>8.6525021688832702</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -1884,7 +1888,7 @@
         <v>10.19609452648664</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>11.26279181794613</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1936,7 +1940,7 @@
         <v>7.6374416385941792</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1966,7 @@
         <v>8.9877610957869702</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -1988,7 +1992,7 @@
         <v>11.876143298977629</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>9.0778620522768563</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>15.927430221003689</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -3002,7 +3006,7 @@
         <v>49.404322684487177</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -3028,7 +3032,7 @@
         <v>1.3064512714249649E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>1.346854660311779E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -3080,7 +3084,7 @@
         <v>1.3033490207319421E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -3106,7 +3110,7 @@
         <v>1.3231350964534771E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -3132,7 +3136,7 @@
         <v>1.4968639274753711E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -3158,7 +3162,7 @@
         <v>1.383762031733506E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>1.3693436908092231E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>1.3683250398963389E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -3236,7 +3240,7 @@
         <v>1.2735105728091999E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -3262,7 +3266,7 @@
         <v>1.1541404124207221E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -3288,7 +3292,7 @@
         <v>1.2058239064724639E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>2.3522629550302551E-4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -4276,7 +4280,7 @@
         <v>1.0344924781543501</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -4302,7 +4306,7 @@
         <v>0.9822321462824346</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -4328,7 +4332,7 @@
         <v>1.715953788222915</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>20</v>
       </c>
@@ -4354,7 +4358,7 @@
         <v>1.436195637682627</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -4380,7 +4384,7 @@
         <v>1.621544519111203</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -4406,7 +4410,7 @@
         <v>1.0432907908414359</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -4432,7 +4436,7 @@
         <v>0.7936713296239607</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>20</v>
       </c>
@@ -4458,7 +4462,7 @@
         <v>1.606286916605802</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -4484,7 +4488,7 @@
         <v>0.76207911277192242</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -4510,7 +4514,7 @@
         <v>0.70034066686645291</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -4536,7 +4540,7 @@
         <v>0.92189020369779562</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -5499,6 +5503,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H193" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="BNBUSD-all"/>
+        <filter val="BNBUSD-N2Y"/>
+        <filter val="BNBUSD-N4Y"/>
+        <filter val="BTCUSD-all"/>
+        <filter val="BTCUSD-N2Y"/>
+        <filter val="BTCUSD-N4Y"/>
+        <filter val="ETHUSD-all"/>
+        <filter val="ETHUSD-N2Y"/>
+        <filter val="ETHUSD-N4Y"/>
+        <filter val="USDTUSD-all"/>
+        <filter val="USDTUSD-N2Y"/>
+        <filter val="USDTUSD-N4Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
